--- a/Marginal_Joint_Conditional.xlsx
+++ b/Marginal_Joint_Conditional.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="326" documentId="11_F25DC773A252ABEACE02EC250B9A74A85ADE589D" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{C6FBDEAF-8B40-4346-B49A-B49A0AF2AD27}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{FFD2C220-4242-4B6B-939D-19EF9E8CE6BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{58171D8B-84F5-4CD5-9BF0-99FECF78799B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,12 +14,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -539,42 +533,1710 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167148</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="Rectangle 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F9F1D1-F19B-4DDA-A4D5-95B680F87088}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8943976" y="8372476"/>
+              <a:ext cx="3152774" cy="500522"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑉𝑠h</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑣𝑠h</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>∞</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+∞</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑓</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑉𝑠h</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑃𝑜𝑟</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑣𝑠h</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑝𝑜𝑟</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑣𝑠h</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="Rectangle 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F9F1D1-F19B-4DDA-A4D5-95B680F87088}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8943976" y="8372476"/>
+              <a:ext cx="3152774" cy="500522"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑓_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑉𝑠ℎ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(𝑣𝑠ℎ)=∫_(−∞)^(+∞)▒〖𝑓_(𝑉𝑠ℎ,𝑃𝑜𝑟) (𝑣𝑠ℎ,𝑝𝑜𝑟)𝑑𝑣𝑠ℎ〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>735121</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138572</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="Rectangle 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B3DF1F-A079-4690-8B9E-AE18909B0CE3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13220701" y="2314575"/>
+              <a:ext cx="2847974" cy="500522"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃𝑜𝑟</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃𝑜𝑟</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>∞</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+∞</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑓</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑃𝑜𝑟</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑉𝑠h</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑝𝑜𝑟</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑣𝑠h</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑝𝑜𝑟</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="Rectangle 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B3DF1F-A079-4690-8B9E-AE18909B0CE3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13220701" y="2314575"/>
+              <a:ext cx="2847974" cy="500522"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓_𝑃𝑜𝑟 (𝑃𝑜𝑟)=∫_(−∞)^(+∞)▒〖𝑓_(𝑃𝑜𝑟,𝑉𝑠ℎ) (𝑝𝑜𝑟,𝑣𝑠ℎ)𝑑𝑝𝑜𝑟〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>16356</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="Rectangle 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01262DD7-5BB6-42E6-9370-8BD972A020D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9086849" y="9448800"/>
+              <a:ext cx="3324225" cy="483081"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="left"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑉𝑠h</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>|</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃𝑜𝑟</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑣𝑠h</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> | </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑝𝑜𝑟</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑓</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑉𝑠h</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑃𝑜𝑟</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑣𝑠h</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑝𝑜𝑟</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑓</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑃𝑜𝑟</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑝𝑜𝑟</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="0">
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="Rectangle 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01262DD7-5BB6-42E6-9370-8BD972A020D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9086849" y="9448800"/>
+              <a:ext cx="3324225" cy="483081"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+                <a:spcBef>
+                  <a:spcPct val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPct val="0"/>
+                </a:spcAft>
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr b="1" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓_(𝑉𝑠ℎ|𝑃𝑜𝑟) (𝑣𝑠ℎ | 𝑝𝑜𝑟)=(𝑓_(𝑉𝑠ℎ,𝑃𝑜𝑟) (𝑣𝑠ℎ,𝑝𝑜𝑟))/(𝑓_𝑃𝑜𝑟 (𝑝𝑜𝑟) )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="0">
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>484187</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>17463</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1">
+        <xdr:cNvPr id="16" name="Group 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9F2616-E0D1-4DAE-BAF9-D782A9279B4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8603B843-3D84-47F3-BBFB-D30FBCAA2775}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+      <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14820901" y="419100"/>
-          <a:ext cx="1039920" cy="1066800"/>
-          <a:chOff x="85164" y="80685"/>
-          <a:chExt cx="6678706" cy="6678706"/>
+          <a:off x="13887450" y="514350"/>
+          <a:ext cx="1112837" cy="1112838"/>
+          <a:chOff x="3738664" y="1071664"/>
+          <a:chExt cx="4714673" cy="4714673"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Oval 2">
+          <xdr:cNvPr id="17" name="Oval 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E5E8B6-696E-4C20-8A88-0862012525A9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD6A5A3D-A352-406A-895E-DE1A40AFC95F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -582,16 +2244,14 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="85164" y="80685"/>
-            <a:ext cx="6678706" cy="6678706"/>
+            <a:off x="3738664" y="1071664"/>
+            <a:ext cx="4714673" cy="4714673"/>
           </a:xfrm>
           <a:prstGeom prst="ellipse">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="3175">
+          <a:noFill/>
+          <a:ln w="12700">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -614,7 +2274,7 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:bodyPr wrap="square" anchor="ctr"/>
           <a:lstStyle>
             <a:defPPr>
               <a:defRPr lang="en-US"/>
@@ -741,17 +2401,19 @@
             </a:lvl9pPr>
           </a:lstStyle>
           <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-US" sz="300"/>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Freeform 5">
+          <xdr:cNvPr id="18" name="Freeform 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC84887-A447-462D-85DB-AC9A75CAE774}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{485E9A74-5415-4F98-AC32-80324660FBE4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -759,8 +2421,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1778459" y="1103238"/>
-            <a:ext cx="3161673" cy="4846786"/>
+            <a:off x="4879182" y="1826654"/>
+            <a:ext cx="2232845" cy="3421550"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -3595,10 +5257,8 @@
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
+          <a:ln w="76200">
+            <a:noFill/>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
@@ -3618,7 +5278,7 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:bodyPr wrap="square" anchor="ctr"/>
           <a:lstStyle>
             <a:defPPr>
               <a:defRPr lang="en-US"/>
@@ -3745,17 +5405,19 @@
             </a:lvl9pPr>
           </a:lstStyle>
           <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-US" sz="300"/>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Rectangle 4">
+          <xdr:cNvPr id="19" name="Rectangle 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E85E2B6-5621-4A68-A14F-3796C36BABBC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F1256B-09A4-462D-A91B-241D57248A37}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3763,19 +5425,16 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="469913" y="509631"/>
-            <a:ext cx="5976630" cy="6182731"/>
+            <a:off x="4015700" y="1352146"/>
+            <a:ext cx="4160601" cy="4153709"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln w="3175">
-            <a:noFill/>
-          </a:ln>
         </xdr:spPr>
         <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1">
+          <a:bodyPr spcFirstLastPara="1" wrap="square" numCol="1">
             <a:prstTxWarp prst="textButton">
               <a:avLst/>
             </a:prstTxWarp>
@@ -3907,23 +5566,28 @@
             </a:lvl9pPr>
           </a:lstStyle>
           <a:p>
-            <a:pPr algn="ctr"/>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600" b="1">
+              <a:rPr lang="en-US" sz="2800">
                 <a:ln w="0"/>
-                <a:effectLst/>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
               </a:rPr>
-              <a:t>Texas Center for Geostatistics</a:t>
+              <a:t>Texas Center for Data Analytics and Geostatistics</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectangle 5">
+          <xdr:cNvPr id="20" name="Rectangle 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F64454-0DD0-4004-AC18-FE09FAA50AB4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D672CBE-9A81-4926-A12B-F5A6EAB3FEDB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3931,23 +5595,18 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="327218" y="328672"/>
-            <a:ext cx="6239432" cy="6182731"/>
+            <a:off x="3986468" y="1246725"/>
+            <a:ext cx="4219065" cy="4364551"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln w="3175">
-            <a:noFill/>
-          </a:ln>
         </xdr:spPr>
         <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1">
+          <a:bodyPr spcFirstLastPara="1" wrap="square" numCol="1">
             <a:prstTxWarp prst="textArchDown">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 1084578"/>
-              </a:avLst>
+              <a:avLst/>
             </a:prstTxWarp>
             <a:spAutoFit/>
           </a:bodyPr>
@@ -4077,11 +5736,16 @@
             </a:lvl9pPr>
           </a:lstStyle>
           <a:p>
-            <a:pPr algn="ctr"/>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600" b="1">
+              <a:rPr lang="en-US" sz="400">
                 <a:ln w="0"/>
-                <a:effectLst/>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
               </a:rPr>
               <a:t>The University of Texas at Austin</a:t>
             </a:r>
@@ -4090,10 +5754,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Freeform 8">
+          <xdr:cNvPr id="21" name="Freeform 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECC298CD-3483-4FA0-9B7F-9552834EF4E9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D15F52-5F0F-4798-9111-596C894B5FFE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4101,8 +5765,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3206690" y="1769492"/>
-            <a:ext cx="547713" cy="871542"/>
+            <a:off x="5883156" y="2292499"/>
+            <a:ext cx="385527" cy="618452"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -4327,7 +5991,7 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:bodyPr wrap="square" anchor="ctr"/>
           <a:lstStyle>
             <a:defPPr>
               <a:defRPr lang="en-US"/>
@@ -4454,17 +6118,19 @@
             </a:lvl9pPr>
           </a:lstStyle>
           <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-US" sz="300"/>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Freeform 9">
+          <xdr:cNvPr id="22" name="Freeform 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BB39806-68BC-4A5A-970D-A776EE20DA2E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EBD76C4-5D9D-46CF-B286-42552FA55C48}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4472,8 +6138,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1364497" y="1767494"/>
-            <a:ext cx="1796218" cy="2796573"/>
+            <a:off x="4582002" y="2292499"/>
+            <a:ext cx="1269027" cy="1975824"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -6436,7 +8102,7 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:bodyPr wrap="square" anchor="ctr"/>
           <a:lstStyle>
             <a:defPPr>
               <a:defRPr lang="en-US"/>
@@ -6563,17 +8229,19 @@
             </a:lvl9pPr>
           </a:lstStyle>
           <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-US" sz="300"/>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Freeform 10">
+          <xdr:cNvPr id="23" name="Freeform 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{500E31C8-C76C-47C3-9AB9-2AAFB19055B3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB55BFC1-9810-486D-97F3-EA61B8FCEDE1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6581,8 +8249,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3701769" y="2685896"/>
-            <a:ext cx="1866014" cy="3074236"/>
+            <a:off x="6236556" y="2943077"/>
+            <a:ext cx="1317218" cy="2168588"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -24781,7 +26449,7 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:bodyPr wrap="square" anchor="ctr"/>
           <a:lstStyle>
             <a:defPPr>
               <a:defRPr lang="en-US"/>
@@ -24908,2315 +26576,14 @@
             </a:lvl9pPr>
           </a:lstStyle>
           <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-US" sz="300"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Freeform 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E44F309-7B55-4DB0-94F3-2D34613F39DE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4364475" y="4813893"/>
-            <a:ext cx="308943" cy="827566"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst>
-              <a:gd name="connsiteX0" fmla="*/ 64104 w 218091"/>
-              <a:gd name="connsiteY0" fmla="*/ 584200 h 584200"/>
-              <a:gd name="connsiteX1" fmla="*/ 604 w 218091"/>
-              <a:gd name="connsiteY1" fmla="*/ 369888 h 584200"/>
-              <a:gd name="connsiteX2" fmla="*/ 37116 w 218091"/>
-              <a:gd name="connsiteY2" fmla="*/ 201613 h 584200"/>
-              <a:gd name="connsiteX3" fmla="*/ 118079 w 218091"/>
-              <a:gd name="connsiteY3" fmla="*/ 58738 h 584200"/>
-              <a:gd name="connsiteX4" fmla="*/ 218091 w 218091"/>
-              <a:gd name="connsiteY4" fmla="*/ 0 h 584200"/>
-            </a:gdLst>
-            <a:ahLst/>
-            <a:cxnLst>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX0" y="connsiteY0"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX1" y="connsiteY1"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX2" y="connsiteY2"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX3" y="connsiteY3"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX4" y="connsiteY4"/>
-              </a:cxn>
-            </a:cxnLst>
-            <a:rect l="l" t="t" r="r" b="b"/>
-            <a:pathLst>
-              <a:path w="218091" h="584200">
-                <a:moveTo>
-                  <a:pt x="64104" y="584200"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="34603" y="508926"/>
-                  <a:pt x="5102" y="433652"/>
-                  <a:pt x="604" y="369888"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="-3894" y="306124"/>
-                  <a:pt x="17537" y="253471"/>
-                  <a:pt x="37116" y="201613"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="56695" y="149755"/>
-                  <a:pt x="87917" y="92340"/>
-                  <a:pt x="118079" y="58738"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="148241" y="25136"/>
-                  <a:pt x="183166" y="12568"/>
-                  <a:pt x="218091" y="0"/>
-                </a:cubicBezTo>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-          <a:noFill/>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US"/>
-            </a:defPPr>
-            <a:lvl1pPr algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="0"/>
-              </a:spcAft>
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="0"/>
-              </a:spcAft>
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="0"/>
-              </a:spcAft>
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="0"/>
-              </a:spcAft>
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="0"/>
-              </a:spcAft>
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-US" sz="300"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Freeform 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{901078B9-EC00-4CC7-B467-6D77A209EC46}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4702654" y="4728437"/>
-            <a:ext cx="60717" cy="47225"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst>
-              <a:gd name="connsiteX0" fmla="*/ 0 w 42862"/>
-              <a:gd name="connsiteY0" fmla="*/ 33338 h 33338"/>
-              <a:gd name="connsiteX1" fmla="*/ 42862 w 42862"/>
-              <a:gd name="connsiteY1" fmla="*/ 0 h 33338"/>
-            </a:gdLst>
-            <a:ahLst/>
-            <a:cxnLst>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX0" y="connsiteY0"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX1" y="connsiteY1"/>
-              </a:cxn>
-            </a:cxnLst>
-            <a:rect l="l" t="t" r="r" b="b"/>
-            <a:pathLst>
-              <a:path w="42862" h="33338">
-                <a:moveTo>
-                  <a:pt x="0" y="33338"/>
-                </a:moveTo>
-                <a:lnTo>
-                  <a:pt x="42862" y="0"/>
-                </a:lnTo>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-          <a:noFill/>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US"/>
-            </a:defPPr>
-            <a:lvl1pPr algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="0"/>
-              </a:spcAft>
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="0"/>
-              </a:spcAft>
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="0"/>
-              </a:spcAft>
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="0"/>
-              </a:spcAft>
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="0"/>
-              </a:spcAft>
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-US" sz="300"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Freeform 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E9EFD45-EABD-46BC-8815-AE05EF7D37E8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5116437" y="4422598"/>
-            <a:ext cx="62967" cy="65217"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst>
-              <a:gd name="connsiteX0" fmla="*/ 0 w 44450"/>
-              <a:gd name="connsiteY0" fmla="*/ 46038 h 46038"/>
-              <a:gd name="connsiteX1" fmla="*/ 44450 w 44450"/>
-              <a:gd name="connsiteY1" fmla="*/ 0 h 46038"/>
-            </a:gdLst>
-            <a:ahLst/>
-            <a:cxnLst>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX0" y="connsiteY0"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX1" y="connsiteY1"/>
-              </a:cxn>
-            </a:cxnLst>
-            <a:rect l="l" t="t" r="r" b="b"/>
-            <a:pathLst>
-              <a:path w="44450" h="46038">
-                <a:moveTo>
-                  <a:pt x="0" y="46038"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="14816" y="26326"/>
-                  <a:pt x="29633" y="6615"/>
-                  <a:pt x="44450" y="0"/>
-                </a:cubicBezTo>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-          <a:noFill/>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US"/>
-            </a:defPPr>
-            <a:lvl1pPr algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="0"/>
-              </a:spcAft>
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="0"/>
-              </a:spcAft>
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="0"/>
-              </a:spcAft>
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="0"/>
-              </a:spcAft>
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="0"/>
-              </a:spcAft>
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr b="1" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-US" sz="300"/>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>167148</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="Rectangle 12">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F9F1D1-F19B-4DDA-A4D5-95B680F87088}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8943976" y="8372476"/>
-              <a:ext cx="3152774" cy="500522"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr wrap="square">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="en-US"/>
-              </a:defPPr>
-              <a:lvl1pPr algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                            <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                            <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑓</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑉𝑠h</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:d>
-                      <m:dPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:dPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑣𝑠h</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:d>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:nary>
-                      <m:naryPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:naryPr>
-                      <m:sub>
-                        <m:r>
-                          <m:rPr>
-                            <m:brk m:alnAt="23"/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>−</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>∞</m:t>
-                        </m:r>
-                      </m:sub>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>+∞</m:t>
-                        </m:r>
-                      </m:sup>
-                      <m:e>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑓</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑉𝑠h</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑃𝑜𝑟</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:d>
-                          <m:dPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:dPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑣𝑠h</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑝𝑜𝑟</m:t>
-                            </m:r>
-                          </m:e>
-                        </m:d>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑑𝑣𝑠h</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:nary>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1200"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="Rectangle 12">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F9F1D1-F19B-4DDA-A4D5-95B680F87088}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8943976" y="8372476"/>
-              <a:ext cx="3152774" cy="500522"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr wrap="square">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="en-US"/>
-              </a:defPPr>
-              <a:lvl1pPr algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑓_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑉𝑠ℎ</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>(𝑣𝑠ℎ)=∫_(−∞)^(+∞)▒〖𝑓_(𝑉𝑠ℎ,𝑃𝑜𝑟) (𝑣𝑠ℎ,𝑝𝑜𝑟)𝑑𝑣𝑠ℎ〗</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1200"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>138572</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="Rectangle 13">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B3DF1F-A079-4690-8B9E-AE18909B0CE3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="13220701" y="2314575"/>
-              <a:ext cx="2847974" cy="500522"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr wrap="square">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="en-US"/>
-              </a:defPPr>
-              <a:lvl1pPr algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑓</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑃𝑜𝑟</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:d>
-                      <m:dPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:dPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑃𝑜𝑟</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:d>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:nary>
-                      <m:naryPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:naryPr>
-                      <m:sub>
-                        <m:r>
-                          <m:rPr>
-                            <m:brk m:alnAt="23"/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>−</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>∞</m:t>
-                        </m:r>
-                      </m:sub>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>+∞</m:t>
-                        </m:r>
-                      </m:sup>
-                      <m:e>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑓</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑃𝑜𝑟</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑉𝑠h</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:d>
-                          <m:dPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:dPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑝𝑜𝑟</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑣𝑠h</m:t>
-                            </m:r>
-                          </m:e>
-                        </m:d>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑑𝑝𝑜𝑟</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:nary>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1200"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="Rectangle 13">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B3DF1F-A079-4690-8B9E-AE18909B0CE3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="13220701" y="2314575"/>
-              <a:ext cx="2847974" cy="500522"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr wrap="square">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="en-US"/>
-              </a:defPPr>
-              <a:lvl1pPr algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑓_𝑃𝑜𝑟 (𝑃𝑜𝑟)=∫_(−∞)^(+∞)▒〖𝑓_(𝑃𝑜𝑟,𝑉𝑠ℎ) (𝑝𝑜𝑟,𝑣𝑠ℎ)𝑑𝑝𝑜𝑟〗</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1200"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>16356</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="Rectangle 14">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01262DD7-5BB6-42E6-9370-8BD972A020D2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9086849" y="9448800"/>
-              <a:ext cx="3324225" cy="483081"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr wrap="square">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="en-US"/>
-              </a:defPPr>
-              <a:lvl1pPr algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="left"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑓</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑉𝑠h</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>|</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑃𝑜𝑟</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:d>
-                      <m:dPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:dPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑣𝑠h</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t> | </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑝𝑜𝑟</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:d>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑓</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑉𝑠h</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑃𝑜𝑟</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:d>
-                          <m:dPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:dPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑣𝑠h</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑝𝑜𝑟</m:t>
-                            </m:r>
-                          </m:e>
-                        </m:d>
-                      </m:num>
-                      <m:den>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑓</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑃𝑜𝑟</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:d>
-                          <m:dPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:dPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑝𝑜𝑟</m:t>
-                            </m:r>
-                          </m:e>
-                        </m:d>
-                      </m:den>
-                    </m:f>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1200" b="0">
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="Rectangle 14">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01262DD7-5BB6-42E6-9370-8BD972A020D2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9086849" y="9448800"/>
-              <a:ext cx="3324225" cy="483081"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr wrap="square">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="en-US"/>
-              </a:defPPr>
-              <a:lvl1pPr algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑓_(𝑉𝑠ℎ|𝑃𝑜𝑟) (𝑣𝑠ℎ | 𝑝𝑜𝑟)=(𝑓_(𝑉𝑠ℎ,𝑃𝑜𝑟) (𝑣𝑠ℎ,𝑝𝑜𝑟))/(𝑓_𝑃𝑜𝑟 (𝑝𝑜𝑟) )</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1200" b="0">
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -27488,7 +26855,7 @@
   <dimension ref="A1:BC249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27975,48 +27342,48 @@
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
       <c r="S14" s="48">
-        <f t="shared" ref="S14:S32" si="1">S15+0.5</f>
+        <f t="shared" ref="S14:S27" si="1">S15+0.5</f>
         <v>8</v>
       </c>
       <c r="T14" s="20" t="str">
-        <f>IF(D14=0,"",D14/SUM($D$14:$L$29))</f>
+        <f t="shared" ref="T14:T29" si="2">IF(D14=0,"",D14/SUM($D$14:$L$29))</f>
         <v/>
       </c>
       <c r="U14" s="21" t="str">
-        <f>IF(E14=0,"",E14/SUM($D$14:$L$29))</f>
+        <f t="shared" ref="U14:U29" si="3">IF(E14=0,"",E14/SUM($D$14:$L$29))</f>
         <v/>
       </c>
       <c r="V14" s="21">
-        <f>IF(F14=0,"",F14/SUM($D$14:$L$29))</f>
+        <f t="shared" ref="V14:V29" si="4">IF(F14=0,"",F14/SUM($D$14:$L$29))</f>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="W14" s="21" t="str">
-        <f>IF(G14=0,"",G14/SUM($D$14:$L$29))</f>
+        <f t="shared" ref="W14:W29" si="5">IF(G14=0,"",G14/SUM($D$14:$L$29))</f>
         <v/>
       </c>
       <c r="X14" s="21" t="str">
-        <f>IF(H14=0,"",H14/SUM($D$14:$L$29))</f>
+        <f t="shared" ref="X14:X29" si="6">IF(H14=0,"",H14/SUM($D$14:$L$29))</f>
         <v/>
       </c>
       <c r="Y14" s="21" t="str">
-        <f>IF(I14=0,"",I14/SUM($D$14:$L$29))</f>
+        <f t="shared" ref="Y14:Y29" si="7">IF(I14=0,"",I14/SUM($D$14:$L$29))</f>
         <v/>
       </c>
       <c r="Z14" s="21" t="str">
-        <f>IF(J14=0,"",J14/SUM($D$14:$L$29))</f>
+        <f t="shared" ref="Z14:Z29" si="8">IF(J14=0,"",J14/SUM($D$14:$L$29))</f>
         <v/>
       </c>
       <c r="AA14" s="21" t="str">
-        <f>IF(K14=0,"",K14/SUM($D$14:$L$29))</f>
+        <f t="shared" ref="AA14:AA29" si="9">IF(K14=0,"",K14/SUM($D$14:$L$29))</f>
         <v/>
       </c>
       <c r="AB14" s="22" t="str">
-        <f>IF(L14=0,"",L14/SUM($D$14:$L$29))</f>
+        <f t="shared" ref="AB14:AB29" si="10">IF(L14=0,"",L14/SUM($D$14:$L$29))</f>
         <v/>
       </c>
       <c r="AC14" s="44"/>
       <c r="AD14" s="29">
-        <f>IF(N14="","",N14/SUM($D$14:$L$29))</f>
+        <f t="shared" ref="AD14:AD29" si="11">IF(N14="","",N14/SUM($D$14:$L$29))</f>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="AE14" s="44"/>
@@ -28045,7 +27412,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="44"/>
       <c r="N15" s="14">
-        <f t="shared" ref="N15:N29" si="2">IF(SUM(D15:L15)=0,"",SUM(D15:L15))</f>
+        <f t="shared" ref="N15:N29" si="12">IF(SUM(D15:L15)=0,"",SUM(D15:L15))</f>
         <v>2</v>
       </c>
       <c r="O15" s="44"/>
@@ -28057,44 +27424,44 @@
         <v>7.5</v>
       </c>
       <c r="T15" s="23" t="str">
-        <f>IF(D15=0,"",D15/SUM($D$14:$L$29))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="U15" s="16">
-        <f>IF(E15=0,"",E15/SUM($D$14:$L$29))</f>
+        <f t="shared" si="3"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="V15" s="16">
-        <f>IF(F15=0,"",F15/SUM($D$14:$L$29))</f>
+        <f t="shared" si="4"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="W15" s="16" t="str">
-        <f>IF(G15=0,"",G15/SUM($D$14:$L$29))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X15" s="16" t="str">
-        <f>IF(H15=0,"",H15/SUM($D$14:$L$29))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y15" s="16" t="str">
-        <f>IF(I15=0,"",I15/SUM($D$14:$L$29))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z15" s="16" t="str">
-        <f>IF(J15=0,"",J15/SUM($D$14:$L$29))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA15" s="16" t="str">
-        <f>IF(K15=0,"",K15/SUM($D$14:$L$29))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB15" s="24" t="str">
-        <f>IF(L15=0,"",L15/SUM($D$14:$L$29))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC15" s="44"/>
       <c r="AD15" s="30">
-        <f>IF(N15="","",N15/SUM($D$14:$L$29))</f>
+        <f t="shared" si="11"/>
         <v>1.8691588785046728E-2</v>
       </c>
       <c r="AE15" s="44"/>
@@ -28127,7 +27494,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="44"/>
       <c r="N16" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="O16" s="44"/>
@@ -28139,44 +27506,44 @@
         <v>7</v>
       </c>
       <c r="T16" s="23" t="str">
-        <f>IF(D16=0,"",D16/SUM($D$14:$L$29))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="U16" s="16">
-        <f>IF(E16=0,"",E16/SUM($D$14:$L$29))</f>
+        <f t="shared" si="3"/>
         <v>1.8691588785046728E-2</v>
       </c>
       <c r="V16" s="16">
-        <f>IF(F16=0,"",F16/SUM($D$14:$L$29))</f>
+        <f t="shared" si="4"/>
         <v>2.8037383177570093E-2</v>
       </c>
       <c r="W16" s="16">
-        <f>IF(G16=0,"",G16/SUM($D$14:$L$29))</f>
+        <f t="shared" si="5"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="X16" s="16" t="str">
-        <f>IF(H16=0,"",H16/SUM($D$14:$L$29))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y16" s="16" t="str">
-        <f>IF(I16=0,"",I16/SUM($D$14:$L$29))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z16" s="16" t="str">
-        <f>IF(J16=0,"",J16/SUM($D$14:$L$29))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA16" s="16" t="str">
-        <f>IF(K16=0,"",K16/SUM($D$14:$L$29))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB16" s="24" t="str">
-        <f>IF(L16=0,"",L16/SUM($D$14:$L$29))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC16" s="44"/>
       <c r="AD16" s="30">
-        <f>IF(N16="","",N16/SUM($D$14:$L$29))</f>
+        <f t="shared" si="11"/>
         <v>5.6074766355140186E-2</v>
       </c>
       <c r="AE16" s="44"/>
@@ -28214,7 +27581,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="44"/>
       <c r="N17" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="O17" s="44"/>
@@ -28226,44 +27593,44 @@
         <v>6.5</v>
       </c>
       <c r="T17" s="23" t="str">
-        <f>IF(D17=0,"",D17/SUM($D$14:$L$29))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="U17" s="16">
-        <f>IF(E17=0,"",E17/SUM($D$14:$L$29))</f>
+        <f t="shared" si="3"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="V17" s="16">
-        <f>IF(F17=0,"",F17/SUM($D$14:$L$29))</f>
+        <f t="shared" si="4"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="W17" s="16">
-        <f>IF(G17=0,"",G17/SUM($D$14:$L$29))</f>
+        <f t="shared" si="5"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="X17" s="16">
-        <f>IF(H17=0,"",H17/SUM($D$14:$L$29))</f>
+        <f t="shared" si="6"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="Y17" s="16">
-        <f>IF(I17=0,"",I17/SUM($D$14:$L$29))</f>
+        <f t="shared" si="7"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="Z17" s="16" t="str">
-        <f>IF(J17=0,"",J17/SUM($D$14:$L$29))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA17" s="16" t="str">
-        <f>IF(K17=0,"",K17/SUM($D$14:$L$29))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB17" s="24" t="str">
-        <f>IF(L17=0,"",L17/SUM($D$14:$L$29))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC17" s="44"/>
       <c r="AD17" s="30">
-        <f>IF(N17="","",N17/SUM($D$14:$L$29))</f>
+        <f t="shared" si="11"/>
         <v>4.6728971962616821E-2</v>
       </c>
       <c r="AE17" s="44"/>
@@ -28296,7 +27663,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="44"/>
       <c r="N18" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="O18" s="44"/>
@@ -28308,44 +27675,44 @@
         <v>6</v>
       </c>
       <c r="T18" s="23" t="str">
-        <f>IF(D18=0,"",D18/SUM($D$14:$L$29))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="U18" s="16" t="str">
-        <f>IF(E18=0,"",E18/SUM($D$14:$L$29))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="V18" s="16">
-        <f>IF(F18=0,"",F18/SUM($D$14:$L$29))</f>
+        <f t="shared" si="4"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="W18" s="16">
-        <f>IF(G18=0,"",G18/SUM($D$14:$L$29))</f>
+        <f t="shared" si="5"/>
         <v>2.8037383177570093E-2</v>
       </c>
       <c r="X18" s="16">
-        <f>IF(H18=0,"",H18/SUM($D$14:$L$29))</f>
+        <f t="shared" si="6"/>
         <v>1.8691588785046728E-2</v>
       </c>
       <c r="Y18" s="16">
-        <f>IF(I18=0,"",I18/SUM($D$14:$L$29))</f>
+        <f t="shared" si="7"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="Z18" s="16" t="str">
-        <f>IF(J18=0,"",J18/SUM($D$14:$L$29))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA18" s="16" t="str">
-        <f>IF(K18=0,"",K18/SUM($D$14:$L$29))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB18" s="24" t="str">
-        <f>IF(L18=0,"",L18/SUM($D$14:$L$29))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC18" s="44"/>
       <c r="AD18" s="30">
-        <f>IF(N18="","",N18/SUM($D$14:$L$29))</f>
+        <f t="shared" si="11"/>
         <v>6.5420560747663545E-2</v>
       </c>
       <c r="AE18" s="44"/>
@@ -28382,7 +27749,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="44"/>
       <c r="N19" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="O19" s="44"/>
@@ -28394,44 +27761,44 @@
         <v>5.5</v>
       </c>
       <c r="T19" s="23" t="str">
-        <f>IF(D19=0,"",D19/SUM($D$14:$L$29))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="U19" s="16">
-        <f>IF(E19=0,"",E19/SUM($D$14:$L$29))</f>
+        <f t="shared" si="3"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="V19" s="16">
-        <f>IF(F19=0,"",F19/SUM($D$14:$L$29))</f>
+        <f t="shared" si="4"/>
         <v>2.8037383177570093E-2</v>
       </c>
       <c r="W19" s="16">
-        <f>IF(G19=0,"",G19/SUM($D$14:$L$29))</f>
+        <f t="shared" si="5"/>
         <v>1.8691588785046728E-2</v>
       </c>
       <c r="X19" s="16">
-        <f>IF(H19=0,"",H19/SUM($D$14:$L$29))</f>
+        <f t="shared" si="6"/>
         <v>4.6728971962616821E-2</v>
       </c>
       <c r="Y19" s="16">
-        <f>IF(I19=0,"",I19/SUM($D$14:$L$29))</f>
+        <f t="shared" si="7"/>
         <v>1.8691588785046728E-2</v>
       </c>
       <c r="Z19" s="16">
-        <f>IF(J19=0,"",J19/SUM($D$14:$L$29))</f>
+        <f t="shared" si="8"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="AA19" s="16" t="str">
-        <f>IF(K19=0,"",K19/SUM($D$14:$L$29))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB19" s="24" t="str">
-        <f>IF(L19=0,"",L19/SUM($D$14:$L$29))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC19" s="44"/>
       <c r="AD19" s="30">
-        <f>IF(N19="","",N19/SUM($D$14:$L$29))</f>
+        <f t="shared" si="11"/>
         <v>0.13084112149532709</v>
       </c>
       <c r="AE19" s="44"/>
@@ -28466,7 +27833,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="44"/>
       <c r="N20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="O20" s="44"/>
@@ -28478,44 +27845,44 @@
         <v>5</v>
       </c>
       <c r="T20" s="23" t="str">
-        <f>IF(D20=0,"",D20/SUM($D$14:$L$29))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="U20" s="16">
-        <f>IF(E20=0,"",E20/SUM($D$14:$L$29))</f>
+        <f t="shared" si="3"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="V20" s="16">
-        <f>IF(F20=0,"",F20/SUM($D$14:$L$29))</f>
+        <f t="shared" si="4"/>
         <v>1.8691588785046728E-2</v>
       </c>
       <c r="W20" s="16">
-        <f>IF(G20=0,"",G20/SUM($D$14:$L$29))</f>
+        <f t="shared" si="5"/>
         <v>2.8037383177570093E-2</v>
       </c>
       <c r="X20" s="16">
-        <f>IF(H20=0,"",H20/SUM($D$14:$L$29))</f>
+        <f t="shared" si="6"/>
         <v>3.7383177570093455E-2</v>
       </c>
       <c r="Y20" s="16">
-        <f>IF(I20=0,"",I20/SUM($D$14:$L$29))</f>
+        <f t="shared" si="7"/>
         <v>1.8691588785046728E-2</v>
       </c>
       <c r="Z20" s="16" t="str">
-        <f>IF(J20=0,"",J20/SUM($D$14:$L$29))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA20" s="16" t="str">
-        <f>IF(K20=0,"",K20/SUM($D$14:$L$29))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB20" s="24" t="str">
-        <f>IF(L20=0,"",L20/SUM($D$14:$L$29))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC20" s="44"/>
       <c r="AD20" s="30">
-        <f>IF(N20="","",N20/SUM($D$14:$L$29))</f>
+        <f t="shared" si="11"/>
         <v>0.11214953271028037</v>
       </c>
       <c r="AE20" s="44"/>
@@ -28554,7 +27921,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="44"/>
       <c r="N21" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="O21" s="44"/>
@@ -28568,44 +27935,44 @@
         <v>4.5</v>
       </c>
       <c r="T21" s="17" t="str">
-        <f>IF(D21=0,"",D21/SUM($D$14:$L$29))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="U21" s="18">
-        <f>IF(E21=0,"",E21/SUM($D$14:$L$29))</f>
+        <f t="shared" si="3"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="V21" s="18">
-        <f>IF(F21=0,"",F21/SUM($D$14:$L$29))</f>
+        <f t="shared" si="4"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="W21" s="18">
-        <f>IF(G21=0,"",G21/SUM($D$14:$L$29))</f>
+        <f t="shared" si="5"/>
         <v>1.8691588785046728E-2</v>
       </c>
       <c r="X21" s="18">
-        <f>IF(H21=0,"",H21/SUM($D$14:$L$29))</f>
+        <f t="shared" si="6"/>
         <v>1.8691588785046728E-2</v>
       </c>
       <c r="Y21" s="18">
-        <f>IF(I21=0,"",I21/SUM($D$14:$L$29))</f>
+        <f t="shared" si="7"/>
         <v>2.8037383177570093E-2</v>
       </c>
       <c r="Z21" s="18" t="str">
-        <f>IF(J21=0,"",J21/SUM($D$14:$L$29))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA21" s="18">
-        <f>IF(K21=0,"",K21/SUM($D$14:$L$29))</f>
+        <f t="shared" si="9"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="AB21" s="19" t="str">
-        <f>IF(L21=0,"",L21/SUM($D$14:$L$29))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC21" s="44"/>
       <c r="AD21" s="30">
-        <f>IF(N21="","",N21/SUM($D$14:$L$29))</f>
+        <f t="shared" si="11"/>
         <v>9.3457943925233641E-2</v>
       </c>
       <c r="AE21" s="44"/>
@@ -28642,7 +28009,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="44"/>
       <c r="N22" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="O22" s="44"/>
@@ -28656,44 +28023,44 @@
         <v>4</v>
       </c>
       <c r="T22" s="23" t="str">
-        <f>IF(D22=0,"",D22/SUM($D$14:$L$29))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="U22" s="16">
-        <f>IF(E22=0,"",E22/SUM($D$14:$L$29))</f>
+        <f t="shared" si="3"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="V22" s="16">
-        <f>IF(F22=0,"",F22/SUM($D$14:$L$29))</f>
+        <f t="shared" si="4"/>
         <v>3.7383177570093455E-2</v>
       </c>
       <c r="W22" s="16">
-        <f>IF(G22=0,"",G22/SUM($D$14:$L$29))</f>
+        <f t="shared" si="5"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="X22" s="16">
-        <f>IF(H22=0,"",H22/SUM($D$14:$L$29))</f>
+        <f t="shared" si="6"/>
         <v>1.8691588785046728E-2</v>
       </c>
       <c r="Y22" s="16">
-        <f>IF(I22=0,"",I22/SUM($D$14:$L$29))</f>
+        <f t="shared" si="7"/>
         <v>1.8691588785046728E-2</v>
       </c>
       <c r="Z22" s="16" t="str">
-        <f>IF(J22=0,"",J22/SUM($D$14:$L$29))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA22" s="16" t="str">
-        <f>IF(K22=0,"",K22/SUM($D$14:$L$29))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB22" s="24" t="str">
-        <f>IF(L22=0,"",L22/SUM($D$14:$L$29))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC22" s="44"/>
       <c r="AD22" s="30">
-        <f>IF(N22="","",N22/SUM($D$14:$L$29))</f>
+        <f t="shared" si="11"/>
         <v>9.3457943925233641E-2</v>
       </c>
       <c r="AE22" s="44"/>
@@ -28728,7 +28095,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="44"/>
       <c r="N23" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(SUM(D23:L23)=0,"",SUM(D23:L23))</f>
         <v>7</v>
       </c>
       <c r="O23" s="44"/>
@@ -28740,44 +28107,44 @@
         <v>3.5</v>
       </c>
       <c r="T23" s="23" t="str">
-        <f>IF(D23=0,"",D23/SUM($D$14:$L$29))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="U23" s="16" t="str">
-        <f>IF(E23=0,"",E23/SUM($D$14:$L$29))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="V23" s="16">
-        <f>IF(F23=0,"",F23/SUM($D$14:$L$29))</f>
+        <f t="shared" si="4"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="W23" s="16">
-        <f>IF(G23=0,"",G23/SUM($D$14:$L$29))</f>
+        <f t="shared" si="5"/>
         <v>2.8037383177570093E-2</v>
       </c>
       <c r="X23" s="16">
-        <f>IF(H23=0,"",H23/SUM($D$14:$L$29))</f>
+        <f t="shared" si="6"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="Y23" s="16">
-        <f>IF(I23=0,"",I23/SUM($D$14:$L$29))</f>
+        <f t="shared" si="7"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="Z23" s="16">
-        <f>IF(J23=0,"",J23/SUM($D$14:$L$29))</f>
+        <f t="shared" si="8"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="AA23" s="16" t="str">
-        <f>IF(K23=0,"",K23/SUM($D$14:$L$29))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB23" s="24" t="str">
-        <f>IF(L23=0,"",L23/SUM($D$14:$L$29))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC23" s="44"/>
       <c r="AD23" s="30">
-        <f>IF(N23="","",N23/SUM($D$14:$L$29))</f>
+        <f t="shared" si="11"/>
         <v>6.5420560747663545E-2</v>
       </c>
       <c r="AE23" s="44"/>
@@ -28814,7 +28181,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="44"/>
       <c r="N24" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="O24" s="44"/>
@@ -28826,44 +28193,44 @@
         <v>3</v>
       </c>
       <c r="T24" s="23" t="str">
-        <f>IF(D24=0,"",D24/SUM($D$14:$L$29))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="U24" s="16">
-        <f>IF(E24=0,"",E24/SUM($D$14:$L$29))</f>
+        <f t="shared" si="3"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="V24" s="16" t="str">
-        <f>IF(F24=0,"",F24/SUM($D$14:$L$29))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W24" s="16">
-        <f>IF(G24=0,"",G24/SUM($D$14:$L$29))</f>
+        <f t="shared" si="5"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="X24" s="16">
-        <f>IF(H24=0,"",H24/SUM($D$14:$L$29))</f>
+        <f t="shared" si="6"/>
         <v>1.8691588785046728E-2</v>
       </c>
       <c r="Y24" s="16">
-        <f>IF(I24=0,"",I24/SUM($D$14:$L$29))</f>
+        <f t="shared" si="7"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="Z24" s="16">
-        <f>IF(J24=0,"",J24/SUM($D$14:$L$29))</f>
+        <f t="shared" si="8"/>
         <v>1.8691588785046728E-2</v>
       </c>
       <c r="AA24" s="16">
-        <f>IF(K24=0,"",K24/SUM($D$14:$L$29))</f>
+        <f t="shared" si="9"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="AB24" s="24" t="str">
-        <f>IF(L24=0,"",L24/SUM($D$14:$L$29))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC24" s="44"/>
       <c r="AD24" s="30">
-        <f>IF(N24="","",N24/SUM($D$14:$L$29))</f>
+        <f t="shared" si="11"/>
         <v>7.476635514018691E-2</v>
       </c>
       <c r="AE24" s="44"/>
@@ -28898,7 +28265,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="44"/>
       <c r="N25" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="O25" s="44"/>
@@ -28910,44 +28277,44 @@
         <v>2.5</v>
       </c>
       <c r="T25" s="23" t="str">
-        <f>IF(D25=0,"",D25/SUM($D$14:$L$29))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="U25" s="16" t="str">
-        <f>IF(E25=0,"",E25/SUM($D$14:$L$29))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="V25" s="16" t="str">
-        <f>IF(F25=0,"",F25/SUM($D$14:$L$29))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W25" s="16">
-        <f>IF(G25=0,"",G25/SUM($D$14:$L$29))</f>
+        <f t="shared" si="5"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="X25" s="16">
-        <f>IF(H25=0,"",H25/SUM($D$14:$L$29))</f>
+        <f t="shared" si="6"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="Y25" s="16">
-        <f>IF(I25=0,"",I25/SUM($D$14:$L$29))</f>
+        <f t="shared" si="7"/>
         <v>1.8691588785046728E-2</v>
       </c>
       <c r="Z25" s="16">
-        <f>IF(J25=0,"",J25/SUM($D$14:$L$29))</f>
+        <f t="shared" si="8"/>
         <v>1.8691588785046728E-2</v>
       </c>
       <c r="AA25" s="16">
-        <f>IF(K25=0,"",K25/SUM($D$14:$L$29))</f>
+        <f t="shared" si="9"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="AB25" s="24" t="str">
-        <f>IF(L25=0,"",L25/SUM($D$14:$L$29))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC25" s="44"/>
       <c r="AD25" s="30">
-        <f>IF(N25="","",N25/SUM($D$14:$L$29))</f>
+        <f t="shared" si="11"/>
         <v>6.5420560747663545E-2</v>
       </c>
       <c r="AE25" s="44"/>
@@ -28984,7 +28351,7 @@
       </c>
       <c r="M26" s="44"/>
       <c r="N26" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="O26" s="44"/>
@@ -28996,44 +28363,44 @@
         <v>2</v>
       </c>
       <c r="T26" s="23" t="str">
-        <f>IF(D26=0,"",D26/SUM($D$14:$L$29))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="U26" s="16" t="str">
-        <f>IF(E26=0,"",E26/SUM($D$14:$L$29))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="V26" s="16" t="str">
-        <f>IF(F26=0,"",F26/SUM($D$14:$L$29))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W26" s="16">
-        <f>IF(G26=0,"",G26/SUM($D$14:$L$29))</f>
+        <f t="shared" si="5"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="X26" s="16">
-        <f>IF(H26=0,"",H26/SUM($D$14:$L$29))</f>
+        <f t="shared" si="6"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="Y26" s="16">
-        <f>IF(I26=0,"",I26/SUM($D$14:$L$29))</f>
+        <f t="shared" si="7"/>
         <v>1.8691588785046728E-2</v>
       </c>
       <c r="Z26" s="16">
-        <f>IF(J26=0,"",J26/SUM($D$14:$L$29))</f>
+        <f t="shared" si="8"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="AA26" s="16">
-        <f>IF(K26=0,"",K26/SUM($D$14:$L$29))</f>
+        <f t="shared" si="9"/>
         <v>2.8037383177570093E-2</v>
       </c>
       <c r="AB26" s="24">
-        <f>IF(L26=0,"",L26/SUM($D$14:$L$29))</f>
+        <f t="shared" si="10"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="AC26" s="44"/>
       <c r="AD26" s="30">
-        <f>IF(N26="","",N26/SUM($D$14:$L$29))</f>
+        <f t="shared" si="11"/>
         <v>8.4112149532710276E-2</v>
       </c>
       <c r="AE26" s="44"/>
@@ -29066,7 +28433,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="44"/>
       <c r="N27" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="O27" s="44"/>
@@ -29078,44 +28445,44 @@
         <v>1.5</v>
       </c>
       <c r="T27" s="23" t="str">
-        <f>IF(D27=0,"",D27/SUM($D$14:$L$29))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="U27" s="16" t="str">
-        <f>IF(E27=0,"",E27/SUM($D$14:$L$29))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="V27" s="16" t="str">
-        <f>IF(F27=0,"",F27/SUM($D$14:$L$29))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W27" s="16" t="str">
-        <f>IF(G27=0,"",G27/SUM($D$14:$L$29))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X27" s="16">
-        <f>IF(H27=0,"",H27/SUM($D$14:$L$29))</f>
+        <f t="shared" si="6"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="Y27" s="16">
-        <f>IF(I27=0,"",I27/SUM($D$14:$L$29))</f>
+        <f t="shared" si="7"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="Z27" s="16">
-        <f>IF(J27=0,"",J27/SUM($D$14:$L$29))</f>
+        <f t="shared" si="8"/>
         <v>2.8037383177570093E-2</v>
       </c>
       <c r="AA27" s="16">
-        <f>IF(K27=0,"",K27/SUM($D$14:$L$29))</f>
+        <f t="shared" si="9"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="AB27" s="24" t="str">
-        <f>IF(L27=0,"",L27/SUM($D$14:$L$29))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC27" s="44"/>
       <c r="AD27" s="30">
-        <f>IF(N27="","",N27/SUM($D$14:$L$29))</f>
+        <f t="shared" si="11"/>
         <v>5.6074766355140186E-2</v>
       </c>
       <c r="AE27" s="44"/>
@@ -29146,7 +28513,7 @@
       </c>
       <c r="M28" s="44"/>
       <c r="N28" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="O28" s="44"/>
@@ -29158,44 +28525,44 @@
         <v>1</v>
       </c>
       <c r="T28" s="23" t="str">
-        <f>IF(D28=0,"",D28/SUM($D$14:$L$29))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="U28" s="16" t="str">
-        <f>IF(E28=0,"",E28/SUM($D$14:$L$29))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="V28" s="16" t="str">
-        <f>IF(F28=0,"",F28/SUM($D$14:$L$29))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W28" s="16" t="str">
-        <f>IF(G28=0,"",G28/SUM($D$14:$L$29))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X28" s="16" t="str">
-        <f>IF(H28=0,"",H28/SUM($D$14:$L$29))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y28" s="16" t="str">
-        <f>IF(I28=0,"",I28/SUM($D$14:$L$29))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z28" s="16">
-        <f>IF(J28=0,"",J28/SUM($D$14:$L$29))</f>
+        <f t="shared" si="8"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="AA28" s="16">
-        <f>IF(K28=0,"",K28/SUM($D$14:$L$29))</f>
+        <f t="shared" si="9"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="AB28" s="24">
-        <f>IF(L28=0,"",L28/SUM($D$14:$L$29))</f>
+        <f t="shared" si="10"/>
         <v>9.3457943925233638E-3</v>
       </c>
       <c r="AC28" s="44"/>
       <c r="AD28" s="30">
-        <f>IF(N28="","",N28/SUM($D$14:$L$29))</f>
+        <f t="shared" si="11"/>
         <v>2.8037383177570093E-2</v>
       </c>
       <c r="AE28" s="44"/>
@@ -29219,7 +28586,7 @@
       <c r="L29" s="9"/>
       <c r="M29" s="44"/>
       <c r="N29" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O29" s="44"/>
@@ -29230,44 +28597,44 @@
         <v>0.5</v>
       </c>
       <c r="T29" s="25" t="str">
-        <f>IF(D29=0,"",D29/SUM($D$14:$L$29))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="U29" s="26" t="str">
-        <f>IF(E29=0,"",E29/SUM($D$14:$L$29))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="V29" s="26" t="str">
-        <f>IF(F29=0,"",F29/SUM($D$14:$L$29))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W29" s="26" t="str">
-        <f>IF(G29=0,"",G29/SUM($D$14:$L$29))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X29" s="26" t="str">
-        <f>IF(H29=0,"",H29/SUM($D$14:$L$29))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y29" s="26" t="str">
-        <f>IF(I29=0,"",I29/SUM($D$14:$L$29))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z29" s="26" t="str">
-        <f>IF(J29=0,"",J29/SUM($D$14:$L$29))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA29" s="26" t="str">
-        <f>IF(K29=0,"",K29/SUM($D$14:$L$29))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB29" s="27" t="str">
-        <f>IF(L29=0,"",L29/SUM($D$14:$L$29))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC29" s="44"/>
       <c r="AD29" s="31" t="str">
-        <f>IF(N29="","",N29/SUM($D$14:$L$29))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AE29" s="44"/>
@@ -29288,31 +28655,31 @@
         <v>15</v>
       </c>
       <c r="F30" s="51">
-        <f t="shared" ref="F30:L30" si="3">E30+5</f>
+        <f t="shared" ref="F30:L30" si="13">E30+5</f>
         <v>20</v>
       </c>
       <c r="G30" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="H30" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="I30" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="J30" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="K30" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="L30" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="M30" s="44"/>
@@ -29330,31 +28697,31 @@
         <v>15</v>
       </c>
       <c r="V30" s="51">
-        <f t="shared" ref="V30:AB30" si="4">U30+5</f>
+        <f t="shared" ref="V30:AB30" si="14">U30+5</f>
         <v>20</v>
       </c>
       <c r="W30" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="X30" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="Y30" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>35</v>
       </c>
       <c r="Z30" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="AA30" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>45</v>
       </c>
       <c r="AB30" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="AC30" s="44"/>
@@ -29490,35 +28857,35 @@
         <v/>
       </c>
       <c r="E34" s="11">
-        <f t="shared" ref="E34:L34" si="5">IF(SUM(E14:E29)=0,"",SUM(E14:E29))</f>
+        <f t="shared" ref="E34:L34" si="15">IF(SUM(E14:E29)=0,"",SUM(E14:E29))</f>
         <v>9</v>
       </c>
       <c r="F34" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
       <c r="G34" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
       <c r="H34" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
       <c r="I34" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
       <c r="J34" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="K34" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="L34" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="M34" s="44"/>
@@ -29533,35 +28900,35 @@
         <v/>
       </c>
       <c r="U34" s="18">
-        <f t="shared" ref="U34:AB34" si="6">IF(SUM(U14:U29)=0,"",SUM(U14:U29))</f>
+        <f t="shared" ref="U34:AB34" si="16">IF(SUM(U14:U29)=0,"",SUM(U14:U29))</f>
         <v>8.4112149532710276E-2</v>
       </c>
       <c r="V34" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.16822429906542055</v>
       </c>
       <c r="W34" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.17757009345794392</v>
       </c>
       <c r="X34" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.20560747663551401</v>
       </c>
       <c r="Y34" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.16822429906542055</v>
       </c>
       <c r="Z34" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.10280373831775701</v>
       </c>
       <c r="AA34" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>7.476635514018691E-2</v>
       </c>
       <c r="AB34" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.8691588785046728E-2</v>
       </c>
       <c r="AC34" s="44"/>
@@ -29744,39 +29111,39 @@
       <c r="R39" s="44"/>
       <c r="S39" s="44"/>
       <c r="T39" s="36" t="str">
-        <f>IF(OR(D21="",D21=0),"",D21/SUM($D$21:$L$21))</f>
+        <f t="shared" ref="T39:AB39" si="17">IF(OR(D21="",D21=0),"",D21/SUM($D$21:$L$21))</f>
         <v/>
       </c>
       <c r="U39" s="37">
-        <f>IF(OR(E21="",E21=0),"",E21/SUM($D$21:$L$21))</f>
+        <f t="shared" si="17"/>
         <v>0.1</v>
       </c>
       <c r="V39" s="37">
-        <f>IF(OR(F21="",F21=0),"",F21/SUM($D$21:$L$21))</f>
+        <f t="shared" si="17"/>
         <v>0.1</v>
       </c>
       <c r="W39" s="37">
-        <f>IF(OR(G21="",G21=0),"",G21/SUM($D$21:$L$21))</f>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="X39" s="37">
-        <f>IF(OR(H21="",H21=0),"",H21/SUM($D$21:$L$21))</f>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="Y39" s="37">
-        <f>IF(OR(I21="",I21=0),"",I21/SUM($D$21:$L$21))</f>
+        <f t="shared" si="17"/>
         <v>0.3</v>
       </c>
       <c r="Z39" s="37" t="str">
-        <f>IF(OR(J21="",J21=0),"",J21/SUM($D$21:$L$21))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AA39" s="37">
-        <f>IF(OR(K21="",K21=0),"",K21/SUM($D$21:$L$21))</f>
+        <f t="shared" si="17"/>
         <v>0.1</v>
       </c>
       <c r="AB39" s="38" t="str">
-        <f>IF(OR(L21="",L21=0),"",L21/SUM($D$21:$L$21))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AC39" s="44"/>
@@ -37244,6 +36611,291 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="N29 D34" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100823D1B5342B3F042933FD523EE3629B5" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="02a2629e4879369c954cdffca173880a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="afb4fb6b-f1a5-4d85-ba97-c4471c5b21f7" xmlns:ns4="b945c3e8-53f6-48d2-b77e-68d71228ccad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fdf7ecfd49580b25d589f0815519707b" ns3:_="" ns4:_="">
+    <xsd:import namespace="afb4fb6b-f1a5-4d85-ba97-c4471c5b21f7"/>
+    <xsd:import namespace="b945c3e8-53f6-48d2-b77e-68d71228ccad"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="afb4fb6b-f1a5-4d85-ba97-c4471c5b21f7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="MediaServiceLocation" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b945c3e8-53f6-48d2-b77e-68d71228ccad" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="14" nillable="true" ma:displayName="Sharing Hint Hash" ma:description="" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E97D77BD-7A40-4D82-A4F7-62980D9A2100}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="afb4fb6b-f1a5-4d85-ba97-c4471c5b21f7"/>
+    <ds:schemaRef ds:uri="b945c3e8-53f6-48d2-b77e-68d71228ccad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8426CDC5-56D9-4A1D-AC93-9E921C379E9E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01D06A30-243B-46AA-90D2-1FC8074971D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="afb4fb6b-f1a5-4d85-ba97-c4471c5b21f7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b945c3e8-53f6-48d2-b77e-68d71228ccad"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>